--- a/colors.xlsx
+++ b/colors.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>light</t>
   </si>
@@ -47,36 +47,12 @@
     <t>orange</t>
   </si>
   <si>
-    <t>#FDEBD0</t>
-  </si>
-  <si>
-    <t>#D68910</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>#F1C40F</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>#FADBD8</t>
   </si>
   <si>
     <t>#CB4335</t>
   </si>
   <si>
-    <t>#D4EFDF</t>
-  </si>
-  <si>
-    <t>#229954</t>
-  </si>
-  <si>
-    <t>green2</t>
-  </si>
-  <si>
     <t>Arthropoda</t>
   </si>
   <si>
@@ -117,6 +93,42 @@
   </si>
   <si>
     <t>#239B56</t>
+  </si>
+  <si>
+    <t>&gt; primates</t>
+  </si>
+  <si>
+    <t>#E6B0AA</t>
+  </si>
+  <si>
+    <t>&gt; rodents</t>
+  </si>
+  <si>
+    <t>&gt; Arachnida</t>
+  </si>
+  <si>
+    <t>&gt; Selachii</t>
+  </si>
+  <si>
+    <t>#F1948A</t>
+  </si>
+  <si>
+    <t>#EDBB99</t>
+  </si>
+  <si>
+    <t>#D35400</t>
+  </si>
+  <si>
+    <t>#A9DFBF</t>
+  </si>
+  <si>
+    <t>#27AE60</t>
+  </si>
+  <si>
+    <t>#E74C3C</t>
+  </si>
+  <si>
+    <t>#C0392B</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,24 +496,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -512,93 +521,92 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
